--- a/code/extraction_data_two-one_right.xlsx
+++ b/code/extraction_data_two-one_right.xlsx
@@ -56,2308 +56,2308 @@
   <dimension ref="A1:N52"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="true"/>
-    <col min="2" max="2" width="14.7109375" customWidth="true"/>
+    <col min="1" max="1" width="14.42578125" customWidth="true"/>
+    <col min="2" max="2" width="14.42578125" customWidth="true"/>
     <col min="3" max="3" width="14.42578125" customWidth="true"/>
-    <col min="4" max="4" width="15.7109375" customWidth="true"/>
-    <col min="5" max="5" width="15.42578125" customWidth="true"/>
-    <col min="6" max="6" width="15.42578125" customWidth="true"/>
-    <col min="7" max="7" width="14.42578125" customWidth="true"/>
-    <col min="8" max="8" width="14.42578125" customWidth="true"/>
+    <col min="4" max="4" width="15.42578125" customWidth="true"/>
+    <col min="5" max="5" width="14.42578125" customWidth="true"/>
+    <col min="6" max="6" width="14.7109375" customWidth="true"/>
+    <col min="7" max="7" width="16.42578125" customWidth="true"/>
+    <col min="8" max="8" width="15.42578125" customWidth="true"/>
     <col min="9" max="9" width="15.42578125" customWidth="true"/>
     <col min="10" max="10" width="15.42578125" customWidth="true"/>
     <col min="11" max="11" width="14.42578125" customWidth="true"/>
-    <col min="12" max="12" width="14.42578125" customWidth="true"/>
+    <col min="12" max="12" width="15.42578125" customWidth="true"/>
     <col min="13" max="13" width="15.42578125" customWidth="true"/>
-    <col min="14" max="14" width="14.7109375" customWidth="true"/>
+    <col min="14" max="14" width="16.28515625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.0021346809500000091</v>
+        <v>-0.27226857850000002</v>
       </c>
       <c r="B1" s="0">
-        <v>0.10923467619999999</v>
+        <v>-0.2413909105</v>
       </c>
       <c r="C1" s="0">
-        <v>-0.15350938919999998</v>
+        <v>-0.027140150389999999</v>
       </c>
       <c r="D1" s="0">
-        <v>0.094326646144999998</v>
+        <v>0.093645689500000004</v>
       </c>
       <c r="E1" s="0">
-        <v>0.30623140593999998</v>
+        <v>0.093069261149999999</v>
       </c>
       <c r="F1" s="0">
-        <v>0.025798887200000009</v>
+        <v>-0.30988077224999999</v>
       </c>
       <c r="G1" s="0">
-        <v>0.057558842114999995</v>
+        <v>-0.30710844349999999</v>
       </c>
       <c r="H1" s="0">
-        <v>-0.199995763819</v>
+        <v>-0.29517330539999997</v>
       </c>
       <c r="I1" s="0">
-        <v>-0.14311445362949998</v>
+        <v>-0.10047742632500001</v>
       </c>
       <c r="J1" s="0">
-        <v>-0.81807432950000003</v>
+        <v>0.1647067083</v>
       </c>
       <c r="K1" s="0">
-        <v>0.30246884060000001</v>
+        <v>-0.061148930750000025</v>
       </c>
       <c r="L1" s="0">
-        <v>0.21400764394999999</v>
+        <v>-0.19430193444499999</v>
       </c>
       <c r="M1" s="0">
-        <v>0.10859077110000001</v>
+        <v>0.046956623069999995</v>
       </c>
       <c r="N1" s="0">
-        <v>-0.081136519899999995</v>
+        <v>-0.019222825200000002</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.38266115830000003</v>
+        <v>-0.066149795800000008</v>
       </c>
       <c r="B2" s="0">
-        <v>-0.52421018750000004</v>
+        <v>-0.49936459823333329</v>
       </c>
       <c r="C2" s="0">
-        <v>-0.57819845950000004</v>
+        <v>-0.46391932696666666</v>
       </c>
       <c r="D2" s="0">
-        <v>-0.31846412590000001</v>
+        <v>-0.17845547856666666</v>
       </c>
       <c r="E2" s="0">
-        <v>-0.67204157379999996</v>
+        <v>-0.29108817956666666</v>
       </c>
       <c r="F2" s="0">
-        <v>-1.2795788754999999</v>
+        <v>-0.56160326309999997</v>
       </c>
       <c r="G2" s="0">
-        <v>-0.49544835795000003</v>
+        <v>-0.24538080545666663</v>
       </c>
       <c r="H2" s="0">
-        <v>-0.24785541666999999</v>
+        <v>-0.32703298853000001</v>
       </c>
       <c r="I2" s="0">
-        <v>-1.0774789489500001</v>
+        <v>-0.63604776186666667</v>
       </c>
       <c r="J2" s="0">
-        <v>0.25872077029999996</v>
+        <v>-0.22723382920000001</v>
       </c>
       <c r="K2" s="0">
-        <v>-1.0133163325500001</v>
+        <v>-0.70697015417999998</v>
       </c>
       <c r="L2" s="0">
-        <v>-0.87893840405000001</v>
+        <v>-0.4304741929</v>
       </c>
       <c r="M2" s="0">
-        <v>-0.51837797215000003</v>
+        <v>-0.080735667100000005</v>
       </c>
       <c r="N2" s="0">
-        <v>-0.3909933015</v>
+        <v>0.12671315159999999</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.11055685398333333</v>
+        <v>-0.16353129740000003</v>
       </c>
       <c r="B3" s="0">
-        <v>-0.38582519733333331</v>
+        <v>-0.26942415432333333</v>
       </c>
       <c r="C3" s="0">
-        <v>-0.28300962840666666</v>
+        <v>-0.18426370213333335</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.15022256143333332</v>
+        <v>-0.076263106666666677</v>
       </c>
       <c r="E3" s="0">
-        <v>-0.32356412166666665</v>
+        <v>0.053012230699999996</v>
       </c>
       <c r="F3" s="0">
-        <v>-0.1614684213666667</v>
+        <v>-0.029338042066666663</v>
       </c>
       <c r="G3" s="0">
-        <v>-0.18232663537666668</v>
+        <v>-0.19916994639999999</v>
       </c>
       <c r="H3" s="0">
-        <v>-0.028464343586666663</v>
+        <v>-0.07355201346000001</v>
       </c>
       <c r="I3" s="0">
-        <v>-0.10279543834600001</v>
+        <v>-0.20418988577666666</v>
       </c>
       <c r="J3" s="0">
-        <v>-0.23083179711999999</v>
+        <v>0.49449537941999999</v>
       </c>
       <c r="K3" s="0">
-        <v>-0.42665112104999997</v>
+        <v>-0.23243014086666666</v>
       </c>
       <c r="L3" s="0">
-        <v>-0.78552646976666674</v>
+        <v>-0.057723229166666667</v>
       </c>
       <c r="M3" s="0">
-        <v>-0.50203036064000006</v>
+        <v>-0.41098685913333338</v>
       </c>
       <c r="N3" s="0">
-        <v>-1.0174271898</v>
+        <v>-0.15611300982333332</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.3832648883</v>
+        <v>0.033755611800000009</v>
       </c>
       <c r="B4" s="0">
-        <v>-0.095639843866666643</v>
+        <v>-0.15670934342000001</v>
       </c>
       <c r="C4" s="0">
-        <v>-0.051519329693333317</v>
+        <v>-0.027755069196666687</v>
       </c>
       <c r="D4" s="0">
-        <v>-0.20077421096666667</v>
+        <v>0.0072495112333333571</v>
       </c>
       <c r="E4" s="0">
-        <v>0.0042317633433333335</v>
+        <v>0.023961714700000008</v>
       </c>
       <c r="F4" s="0">
-        <v>-0.21655486178333336</v>
+        <v>-0.088537421366666688</v>
       </c>
       <c r="G4" s="0">
-        <v>-0.37638554575666666</v>
+        <v>-0.35983435801666669</v>
       </c>
       <c r="H4" s="0">
-        <v>-0.035970939483333318</v>
+        <v>-0.069983748890000017</v>
       </c>
       <c r="I4" s="0">
-        <v>0.29323749233000002</v>
+        <v>0.62600416337999998</v>
       </c>
       <c r="J4" s="0">
-        <v>-0.1358725036</v>
+        <v>-0.10754054479999998</v>
       </c>
       <c r="K4" s="0">
-        <v>0.084844550866666688</v>
+        <v>0.018082584756666624</v>
       </c>
       <c r="L4" s="0">
-        <v>0.11556679943333333</v>
+        <v>-0.12306711158000001</v>
       </c>
       <c r="M4" s="0">
-        <v>0.41584795260000001</v>
+        <v>-0.023902220400000007</v>
       </c>
       <c r="N4" s="0">
-        <v>0.63300308592333343</v>
+        <v>0.57413054453333334</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.096867680039999973</v>
+        <v>-0.038754862466666672</v>
       </c>
       <c r="B5" s="0">
-        <v>-0.038271919733333319</v>
+        <v>0.14564883349999999</v>
       </c>
       <c r="C5" s="0">
-        <v>0.1871504175466667</v>
+        <v>0.076688479133333334</v>
       </c>
       <c r="D5" s="0">
-        <v>0.0090174224033333361</v>
+        <v>-0.18549289769999999</v>
       </c>
       <c r="E5" s="0">
-        <v>0.018010303033333324</v>
+        <v>-0.27128101326666665</v>
       </c>
       <c r="F5" s="0">
-        <v>0.18139785152999999</v>
+        <v>-0.07401572713</v>
       </c>
       <c r="G5" s="0">
-        <v>0.23885136002333332</v>
+        <v>-0.21336009219333332</v>
       </c>
       <c r="H5" s="0">
-        <v>-0.11262606453333335</v>
+        <v>-0.26514517500000001</v>
       </c>
       <c r="I5" s="0">
-        <v>0.099265331953333327</v>
+        <v>0.086163921246666678</v>
       </c>
       <c r="J5" s="0">
-        <v>-0.24813875510000005</v>
+        <v>-0.071156037733333344</v>
       </c>
       <c r="K5" s="0">
-        <v>0.54180015616666666</v>
+        <v>0.30389305800000005</v>
       </c>
       <c r="L5" s="0">
-        <v>0.1993907183333333</v>
+        <v>-0.23860636433333335</v>
       </c>
       <c r="M5" s="0">
-        <v>-0.0036521754333333303</v>
+        <v>-0.42847918638666666</v>
       </c>
       <c r="N5" s="0">
-        <v>0.12412332086666666</v>
+        <v>0.083405040200000016</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.34100257093366665</v>
+        <v>-0.33590716389000003</v>
       </c>
       <c r="B6" s="0">
-        <v>-0.28949154896666668</v>
+        <v>-0.36792688499999998</v>
       </c>
       <c r="C6" s="0">
-        <v>-0.11524225066666664</v>
+        <v>-0.35039965241999999</v>
       </c>
       <c r="D6" s="0">
-        <v>0.12067040216666669</v>
+        <v>-0.031112656129999989</v>
       </c>
       <c r="E6" s="0">
-        <v>0.1053899850333333</v>
+        <v>-0.098077162633333367</v>
       </c>
       <c r="F6" s="0">
-        <v>0.13090236830000002</v>
+        <v>-0.16916765330000003</v>
       </c>
       <c r="G6" s="0">
-        <v>0.30082035006666663</v>
+        <v>0.25361685169666665</v>
       </c>
       <c r="H6" s="0">
-        <v>-0.2020405431</v>
+        <v>0.034313034833333332</v>
       </c>
       <c r="I6" s="0">
-        <v>-0.52212636906666665</v>
+        <v>-0.48742858553333335</v>
       </c>
       <c r="J6" s="0">
-        <v>-0.27323523266666666</v>
+        <v>-0.1266556049</v>
       </c>
       <c r="K6" s="0">
-        <v>-0.095953310366666655</v>
+        <v>-0.23147690436666668</v>
       </c>
       <c r="L6" s="0">
-        <v>0.10958723676666667</v>
+        <v>0.042340861099999981</v>
       </c>
       <c r="M6" s="0">
-        <v>-0.070138806333333317</v>
+        <v>-0.02123760483333333</v>
       </c>
       <c r="N6" s="0">
-        <v>0.040018969899999979</v>
+        <v>0.013445621800000007</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.2954173115</v>
+        <v>-0.30085907960000002</v>
       </c>
       <c r="B7" s="0">
-        <v>-0.1121586361666667</v>
+        <v>-0.50503614318000001</v>
       </c>
       <c r="C7" s="0">
-        <v>-0.23683371913333331</v>
+        <v>-0.44788125797333334</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.30069792280000002</v>
+        <v>-0.44022783963333328</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.44799645453333331</v>
+        <v>-0.62074641779999995</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.48447403166666669</v>
+        <v>-0.40476042456666672</v>
       </c>
       <c r="G7" s="0">
-        <v>-0.21008966863333334</v>
+        <v>0.11145574263333334</v>
       </c>
       <c r="H7" s="0">
-        <v>-0.14215380725333335</v>
+        <v>-0.022798731953333318</v>
       </c>
       <c r="I7" s="0">
-        <v>-0.44179021459666662</v>
+        <v>-0.44337520403333336</v>
       </c>
       <c r="J7" s="0">
-        <v>-0.72545083076666661</v>
+        <v>-0.42711907160000001</v>
       </c>
       <c r="K7" s="0">
-        <v>-0.89629413803333347</v>
+        <v>-0.56117930440000008</v>
       </c>
       <c r="L7" s="0">
-        <v>-0.8043501328999999</v>
+        <v>-0.65564205203333337</v>
       </c>
       <c r="M7" s="0">
-        <v>-0.80002443646666654</v>
+        <v>-0.55905457589999996</v>
       </c>
       <c r="N7" s="0">
-        <v>-0.75422248026666672</v>
+        <v>-0.42812260793333334</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.3205442170333333</v>
+        <v>-0.0030153249699999968</v>
       </c>
       <c r="B8" s="0">
-        <v>0.083750692073333341</v>
+        <v>-0.20277118299666666</v>
       </c>
       <c r="C8" s="0">
-        <v>0.20498052694000002</v>
+        <v>-0.20035471993333331</v>
       </c>
       <c r="D8" s="0">
-        <v>-0.014560660359999996</v>
+        <v>-0.19325240778666666</v>
       </c>
       <c r="E8" s="0">
-        <v>-0.012143116733333329</v>
+        <v>0.04401620890000002</v>
       </c>
       <c r="F8" s="0">
-        <v>0.10603226984999999</v>
+        <v>-0.206025450029</v>
       </c>
       <c r="G8" s="0">
-        <v>0.12901755609999999</v>
+        <v>-0.51044551396666671</v>
       </c>
       <c r="H8" s="0">
-        <v>0.022811680123333334</v>
+        <v>-0.66385460373333327</v>
       </c>
       <c r="I8" s="0">
-        <v>0.2440983231666666</v>
+        <v>0.093793037693333345</v>
       </c>
       <c r="J8" s="0">
-        <v>0.47956467280000004</v>
+        <v>-1.3628391001999998</v>
       </c>
       <c r="K8" s="0">
-        <v>0.55536074803333335</v>
+        <v>-0.14021826906666668</v>
       </c>
       <c r="L8" s="0">
-        <v>-0.10945987226666669</v>
+        <v>-0.57174604048666666</v>
       </c>
       <c r="M8" s="0">
-        <v>0.22141155936666665</v>
+        <v>0.014503268499999999</v>
       </c>
       <c r="N8" s="0">
-        <v>0.23262803772333332</v>
+        <v>-0.48031487138666673</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.24291392883333332</v>
+        <v>-0.090185620933333335</v>
       </c>
       <c r="B9" s="0">
-        <v>-0.28916984366666659</v>
+        <v>-0.31740524716666668</v>
       </c>
       <c r="C9" s="0">
-        <v>-0.19200835063333332</v>
+        <v>-0.050244374856666663</v>
       </c>
       <c r="D9" s="0">
-        <v>0.21797500626666666</v>
+        <v>0.25102905082999999</v>
       </c>
       <c r="E9" s="0">
-        <v>0.26674372973333332</v>
+        <v>0.28251775286666664</v>
       </c>
       <c r="F9" s="0">
-        <v>-0.046716371540000023</v>
+        <v>0.13706028073333332</v>
       </c>
       <c r="G9" s="0">
-        <v>-0.31395361211333334</v>
+        <v>-0.17496347230000001</v>
       </c>
       <c r="H9" s="0">
-        <v>-0.22830225852</v>
+        <v>-0.42034242708000003</v>
       </c>
       <c r="I9" s="0">
-        <v>-0.1206379613</v>
+        <v>-0.17139318681333335</v>
       </c>
       <c r="J9" s="0">
-        <v>-0.0055287618433333312</v>
+        <v>0.028120323299999989</v>
       </c>
       <c r="K9" s="0">
-        <v>0.31174308646666665</v>
+        <v>0.08796986171</v>
       </c>
       <c r="L9" s="0">
-        <v>0.12987261556999993</v>
+        <v>-0.026250585679999997</v>
       </c>
       <c r="M9" s="0">
-        <v>-0.088159381586666655</v>
+        <v>-0.28139064006666664</v>
       </c>
       <c r="N9" s="0">
-        <v>0.19782017646666664</v>
+        <v>-2.1122966666601666e-05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.5071184067333333</v>
+        <v>0.33985671204066664</v>
       </c>
       <c r="B10" s="0">
-        <v>0.78412654969999995</v>
+        <v>0.7119489793999999</v>
       </c>
       <c r="C10" s="0">
-        <v>0.27870497543333328</v>
+        <v>0.36557438276666665</v>
       </c>
       <c r="D10" s="0">
-        <v>0.16358134219999998</v>
+        <v>0.31958482636166663</v>
       </c>
       <c r="E10" s="0">
-        <v>0.1930404121</v>
+        <v>0.75105452849999998</v>
       </c>
       <c r="F10" s="0">
-        <v>0.12196008264333329</v>
+        <v>0.51655913100000006</v>
       </c>
       <c r="G10" s="0">
-        <v>-0.25242106590000002</v>
+        <v>0.40986555546666664</v>
       </c>
       <c r="H10" s="0">
-        <v>0.016859876566666654</v>
+        <v>0.30274840620000004</v>
       </c>
       <c r="I10" s="0">
-        <v>0.044271593799999988</v>
+        <v>0.40896779873333333</v>
       </c>
       <c r="J10" s="0">
-        <v>-0.013120302466666659</v>
+        <v>-0.0068069046666666688</v>
       </c>
       <c r="K10" s="0">
-        <v>-0.077175382466666664</v>
+        <v>0.093823691036666657</v>
       </c>
       <c r="L10" s="0">
-        <v>0.18062536220000003</v>
+        <v>0.43774210210000003</v>
       </c>
       <c r="M10" s="0">
-        <v>0.022082637033333314</v>
+        <v>0.13021599592999999</v>
       </c>
       <c r="N10" s="0">
-        <v>0.55853929989999995</v>
+        <v>0.06075753036666668</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.10756617193333334</v>
+        <v>-0.015480937156666661</v>
       </c>
       <c r="B11" s="0">
-        <v>-0.13687360685333333</v>
+        <v>-0.19941368289999997</v>
       </c>
       <c r="C11" s="0">
-        <v>-0.3818901422333334</v>
+        <v>-0.28358508062666665</v>
       </c>
       <c r="D11" s="0">
-        <v>-0.12523199091333334</v>
+        <v>0.099281283883333335</v>
       </c>
       <c r="E11" s="0">
-        <v>0.057673316733333341</v>
+        <v>0.018026850000000001</v>
       </c>
       <c r="F11" s="0">
-        <v>0.033563833943333329</v>
+        <v>0.023985749966666654</v>
       </c>
       <c r="G11" s="0">
-        <v>-0.11339994926666665</v>
+        <v>-0.046803640633333331</v>
       </c>
       <c r="H11" s="0">
-        <v>-0.072425950703333339</v>
+        <v>-0.10329823654333332</v>
       </c>
       <c r="I11" s="0">
-        <v>0.023466383143333335</v>
+        <v>0.20290588500333331</v>
       </c>
       <c r="J11" s="0">
-        <v>-0.39702394655000001</v>
+        <v>-0.2938526749</v>
       </c>
       <c r="K11" s="0">
-        <v>-0.30363109661999999</v>
+        <v>-0.58930259863333334</v>
       </c>
       <c r="L11" s="0">
-        <v>-0.18212075754000001</v>
+        <v>-0.086049558450000008</v>
       </c>
       <c r="M11" s="0">
-        <v>-0.16325467591000001</v>
+        <v>0.13718282080000002</v>
       </c>
       <c r="N11" s="0">
-        <v>-0.59656799783333325</v>
+        <v>-0.64062596569999997</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.25586520468000001</v>
+        <v>0.60063438540000003</v>
       </c>
       <c r="B12" s="0">
-        <v>0.22727938049999999</v>
+        <v>0.52244436266666672</v>
       </c>
       <c r="C12" s="0">
-        <v>0.26787954673333336</v>
+        <v>0.6213732856066666</v>
       </c>
       <c r="D12" s="0">
-        <v>0.24687560475666667</v>
+        <v>0.68585156489999999</v>
       </c>
       <c r="E12" s="0">
-        <v>0.33642770252766674</v>
+        <v>0.82895815923333327</v>
       </c>
       <c r="F12" s="0">
-        <v>0.17053699703333333</v>
+        <v>0.51545377133333325</v>
       </c>
       <c r="G12" s="0">
-        <v>-0.029230108733333333</v>
+        <v>0.44959708999999998</v>
       </c>
       <c r="H12" s="0">
-        <v>-0.11162845663333336</v>
+        <v>0.41396197443333332</v>
       </c>
       <c r="I12" s="0">
-        <v>0.12722972109999997</v>
+        <v>0.78455638780000003</v>
       </c>
       <c r="J12" s="0">
-        <v>-0.80817802639999992</v>
+        <v>0.37453265500000005</v>
       </c>
       <c r="K12" s="0">
-        <v>-0.078555550733333326</v>
+        <v>0.55297142386666664</v>
       </c>
       <c r="L12" s="0">
-        <v>0.031586171600000011</v>
+        <v>0.84337171516999998</v>
       </c>
       <c r="M12" s="0">
-        <v>0.14609120883333335</v>
+        <v>0.95393452546666679</v>
       </c>
       <c r="N12" s="0">
-        <v>0.17466630086666668</v>
+        <v>1.0889536698000002</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.029887045000000001</v>
+        <v>-0.033266436649999988</v>
       </c>
       <c r="B13" s="0">
-        <v>0.25083641393333339</v>
+        <v>-0.50317166923333334</v>
       </c>
       <c r="C13" s="0">
-        <v>0.18262847099999999</v>
+        <v>-0.23364151799999999</v>
       </c>
       <c r="D13" s="0">
-        <v>0.045725362333333332</v>
+        <v>-0.036442927043333344</v>
       </c>
       <c r="E13" s="0">
-        <v>-0.047386130333333353</v>
+        <v>0.043917902166666654</v>
       </c>
       <c r="F13" s="0">
-        <v>0.17745294316666663</v>
+        <v>0.083619988270000001</v>
       </c>
       <c r="G13" s="0">
-        <v>-0.03470991843333332</v>
+        <v>-0.59488815520000005</v>
       </c>
       <c r="H13" s="0">
-        <v>0.26851999233333335</v>
+        <v>-0.29707393440000002</v>
       </c>
       <c r="I13" s="0">
-        <v>0.11949180423333332</v>
+        <v>0.023372050363333341</v>
       </c>
       <c r="J13" s="0">
-        <v>0.10433827923666668</v>
+        <v>-0.51360207506666666</v>
       </c>
       <c r="K13" s="0">
-        <v>-0.31019647746666673</v>
+        <v>-0.72765120861999988</v>
       </c>
       <c r="L13" s="0">
-        <v>0.27123820706666663</v>
+        <v>0.026576726533333334</v>
       </c>
       <c r="M13" s="0">
-        <v>0.6033451415833333</v>
+        <v>0.067659630366666668</v>
       </c>
       <c r="N13" s="0">
-        <v>0.0095588224033333197</v>
+        <v>-0.14323134956666667</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.23121036706666664</v>
+        <v>-0.13195174669999998</v>
       </c>
       <c r="B14" s="0">
-        <v>-0.51494233773333331</v>
+        <v>-0.30902552646666664</v>
       </c>
       <c r="C14" s="0">
-        <v>-0.26479509764666664</v>
+        <v>-0.50355549276666667</v>
       </c>
       <c r="D14" s="0">
-        <v>-0.010633128766666658</v>
+        <v>-0.63432227493333337</v>
       </c>
       <c r="E14" s="0">
-        <v>0.098479859003333337</v>
+        <v>-0.53937237639999991</v>
       </c>
       <c r="F14" s="0">
-        <v>0.090650252366666684</v>
+        <v>-0.093997402866666649</v>
       </c>
       <c r="G14" s="0">
-        <v>0.16249979413333335</v>
+        <v>0.080431508466666662</v>
       </c>
       <c r="H14" s="0">
-        <v>-0.098706054500000015</v>
+        <v>-0.085071915766666673</v>
       </c>
       <c r="I14" s="0">
-        <v>-0.067952226086666692</v>
+        <v>-0.35820547826666665</v>
       </c>
       <c r="J14" s="0">
-        <v>0.21565957795333335</v>
+        <v>0.31097957060000003</v>
       </c>
       <c r="K14" s="0">
-        <v>-0.23172951686666665</v>
+        <v>-0.75962185816666672</v>
       </c>
       <c r="L14" s="0">
-        <v>-0.097133999999999984</v>
+        <v>-0.71576154330000008</v>
       </c>
       <c r="M14" s="0">
-        <v>0.19398924613333335</v>
+        <v>-0.72229399220000001</v>
       </c>
       <c r="N14" s="0">
-        <v>-0.37969046909000004</v>
+        <v>-0.5972302536666666</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.12828015400000001</v>
+        <v>-0.13130546056666667</v>
       </c>
       <c r="B15" s="0">
-        <v>-0.30846558506666666</v>
+        <v>-0.20873743033333333</v>
       </c>
       <c r="C15" s="0">
-        <v>-0.1593068295</v>
+        <v>-0.24132325251333334</v>
       </c>
       <c r="D15" s="0">
-        <v>-0.079705729433333317</v>
+        <v>-0.45390627706999997</v>
       </c>
       <c r="E15" s="0">
-        <v>0.116783232</v>
+        <v>-0.23050331846666663</v>
       </c>
       <c r="F15" s="0">
-        <v>-0.18746136943333333</v>
+        <v>-0.31364777944333333</v>
       </c>
       <c r="G15" s="0">
-        <v>-0.22095169913333335</v>
+        <v>-0.22937743180000003</v>
       </c>
       <c r="H15" s="0">
-        <v>0.041062530143333338</v>
+        <v>-0.29124382723333331</v>
       </c>
       <c r="I15" s="0">
-        <v>0.19198282258666666</v>
+        <v>0.039546356793333341</v>
       </c>
       <c r="J15" s="0">
-        <v>-0.14081570513333333</v>
+        <v>-0.37649319283333332</v>
       </c>
       <c r="K15" s="0">
-        <v>0.23657349317000001</v>
+        <v>0.25862079442333336</v>
       </c>
       <c r="L15" s="0">
-        <v>-0.10751350230000001</v>
+        <v>-0.25548161997666663</v>
       </c>
       <c r="M15" s="0">
-        <v>0.028431771200000001</v>
+        <v>-0.25417699565666668</v>
       </c>
       <c r="N15" s="0">
-        <v>-0.13187365576666668</v>
+        <v>-0.22839744774000001</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.15751134073333331</v>
+        <v>-0.33915798583333334</v>
       </c>
       <c r="B16" s="0">
-        <v>-0.048453062766666666</v>
+        <v>-0.29174927564666669</v>
       </c>
       <c r="C16" s="0">
-        <v>-0.23362786170666669</v>
+        <v>-0.31566939869999999</v>
       </c>
       <c r="D16" s="0">
-        <v>-0.36677791659999998</v>
+        <v>-0.1360956861</v>
       </c>
       <c r="E16" s="0">
-        <v>-0.29392526979333333</v>
+        <v>-0.097718842066666659</v>
       </c>
       <c r="F16" s="0">
-        <v>0.2627100097233333</v>
+        <v>0.040562948233333361</v>
       </c>
       <c r="G16" s="0">
-        <v>0.25184770699999998</v>
+        <v>-0.38808997431666664</v>
       </c>
       <c r="H16" s="0">
-        <v>-0.14470139636666668</v>
+        <v>-0.46523539826666666</v>
       </c>
       <c r="I16" s="0">
-        <v>-0.44055421960000002</v>
+        <v>-0.4425300100866667</v>
       </c>
       <c r="J16" s="0">
-        <v>-0.05342680842333334</v>
+        <v>-0.73998550936666663</v>
       </c>
       <c r="K16" s="0">
-        <v>-0.61673568713333338</v>
+        <v>-0.35057118026666667</v>
       </c>
       <c r="L16" s="0">
-        <v>-0.32011701899000006</v>
+        <v>-0.78284216336666679</v>
       </c>
       <c r="M16" s="0">
-        <v>0.21096967756666665</v>
+        <v>-0.0062284181666666383</v>
       </c>
       <c r="N16" s="0">
-        <v>-0.43121015320000006</v>
+        <v>-0.98559697623333342</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.17349549323999999</v>
+        <v>0.23754470620000001</v>
       </c>
       <c r="B17" s="0">
-        <v>-0.33418276086666671</v>
+        <v>0.31518223166666665</v>
       </c>
       <c r="C17" s="0">
-        <v>-0.19256359899</v>
+        <v>0.45043391099999996</v>
       </c>
       <c r="D17" s="0">
-        <v>-0.03233778763333333</v>
+        <v>-0.023477659200000018</v>
       </c>
       <c r="E17" s="0">
-        <v>-0.13080778163333334</v>
+        <v>0.31859824137666665</v>
       </c>
       <c r="F17" s="0">
-        <v>-0.29650296120000003</v>
+        <v>0.27074808981333331</v>
       </c>
       <c r="G17" s="0">
-        <v>-0.22830504509666669</v>
+        <v>0.058618693233333304</v>
       </c>
       <c r="H17" s="0">
-        <v>-0.18182328165133332</v>
+        <v>0.15700902044000001</v>
       </c>
       <c r="I17" s="0">
-        <v>-0.10210931594</v>
+        <v>-0.10797511826666661</v>
       </c>
       <c r="J17" s="0">
-        <v>-0.093809518119000013</v>
+        <v>-0.12988045817666669</v>
       </c>
       <c r="K17" s="0">
-        <v>-0.28444207316666664</v>
+        <v>0.51649743304999995</v>
       </c>
       <c r="L17" s="0">
-        <v>-0.55687196713333331</v>
+        <v>0.15268742469999999</v>
       </c>
       <c r="M17" s="0">
-        <v>0.16098770070000004</v>
+        <v>-0.013904098150000002</v>
       </c>
       <c r="N17" s="0">
-        <v>0.19968826509999993</v>
+        <v>-0.14580715381666667</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.017096601773333331</v>
+        <v>0.079032561659999986</v>
       </c>
       <c r="B18" s="0">
-        <v>-0.35958093956666665</v>
+        <v>-0.25402794393</v>
       </c>
       <c r="C18" s="0">
-        <v>-0.36403984556666669</v>
+        <v>-0.10826161383333333</v>
       </c>
       <c r="D18" s="0">
-        <v>-0.022610404766666665</v>
+        <v>0.46059562353333333</v>
       </c>
       <c r="E18" s="0">
-        <v>0.17818734391666666</v>
+        <v>0.63931063526333332</v>
       </c>
       <c r="F18" s="0">
-        <v>0.015790225800000012</v>
+        <v>0.22900944996666669</v>
       </c>
       <c r="G18" s="0">
-        <v>-0.34254525516666662</v>
+        <v>-0.10717476408</v>
       </c>
       <c r="H18" s="0">
-        <v>-0.21262439826666668</v>
+        <v>-0.077599123533333328</v>
       </c>
       <c r="I18" s="0">
-        <v>-0.12770239856666668</v>
+        <v>0.2071907851666667</v>
       </c>
       <c r="J18" s="0">
-        <v>-1.0495739081333333</v>
+        <v>-0.45431943633333338</v>
       </c>
       <c r="K18" s="0">
-        <v>-0.36126659646666665</v>
+        <v>-0.24098860879999998</v>
       </c>
       <c r="L18" s="0">
-        <v>-0.33512354276666673</v>
+        <v>-0.009859438919999991</v>
       </c>
       <c r="M18" s="0">
-        <v>-0.19733326430000001</v>
+        <v>0.30721284319666664</v>
       </c>
       <c r="N18" s="0">
-        <v>-0.17114042753333333</v>
+        <v>-0.21422341033333334</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.30773846283333334</v>
+        <v>-0.014877871886666671</v>
       </c>
       <c r="B19" s="0">
-        <v>0.2262222901566667</v>
+        <v>-0.33077642876666663</v>
       </c>
       <c r="C19" s="0">
-        <v>0.39551177502333329</v>
+        <v>-0.15448434318999998</v>
       </c>
       <c r="D19" s="0">
-        <v>-0.026989888233333332</v>
+        <v>0.048389010306666667</v>
       </c>
       <c r="E19" s="0">
-        <v>0.087414537466666664</v>
+        <v>0.32000023840000003</v>
       </c>
       <c r="F19" s="0">
-        <v>0.067123569079999987</v>
+        <v>0.14821152391333334</v>
       </c>
       <c r="G19" s="0">
-        <v>-0.17032278778666665</v>
+        <v>-0.19592520326666665</v>
       </c>
       <c r="H19" s="0">
-        <v>-0.17935002981000001</v>
+        <v>-0.51792550206666665</v>
       </c>
       <c r="I19" s="0">
-        <v>0.26732646716666664</v>
+        <v>-0.12032211529999999</v>
       </c>
       <c r="J19" s="0">
-        <v>0.20961061319999999</v>
+        <v>-0.11419965494000001</v>
       </c>
       <c r="K19" s="0">
-        <v>0.58144297572999992</v>
+        <v>-0.067299807403333342</v>
       </c>
       <c r="L19" s="0">
-        <v>0.34672243973333333</v>
+        <v>-0.22312811066666663</v>
       </c>
       <c r="M19" s="0">
-        <v>0.38648283023333335</v>
+        <v>-0.26936336406666667</v>
       </c>
       <c r="N19" s="0">
-        <v>0.80694025629999988</v>
+        <v>-0.31677843753333335</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.11694835916999997</v>
+        <v>0.27703199410000001</v>
       </c>
       <c r="B20" s="0">
-        <v>-0.057215671799999979</v>
+        <v>0.31585487983333332</v>
       </c>
       <c r="C20" s="0">
-        <v>-0.28073924410000001</v>
+        <v>0.22984664668666666</v>
       </c>
       <c r="D20" s="0">
-        <v>0.11688941132666665</v>
+        <v>0.28371545833333334</v>
       </c>
       <c r="E20" s="0">
-        <v>0.18804619109999998</v>
+        <v>0.090131992633333338</v>
       </c>
       <c r="F20" s="0">
-        <v>-0.15426335910666666</v>
+        <v>0.19758308280000003</v>
       </c>
       <c r="G20" s="0">
-        <v>-0.65306273485333333</v>
+        <v>0.04661845160000002</v>
       </c>
       <c r="H20" s="0">
-        <v>-0.11567231473333332</v>
+        <v>0.34536963344333332</v>
       </c>
       <c r="I20" s="0">
-        <v>-0.037362394366666662</v>
+        <v>0.43302629834999995</v>
       </c>
       <c r="J20" s="0">
-        <v>0.12215392686666671</v>
+        <v>0.55198384796666666</v>
       </c>
       <c r="K20" s="0">
-        <v>-0.23121577243333333</v>
+        <v>0.40464981601666672</v>
       </c>
       <c r="L20" s="0">
-        <v>-0.20534994346666668</v>
+        <v>0.19247542648000002</v>
       </c>
       <c r="M20" s="0">
-        <v>-0.30666003623333332</v>
+        <v>-0.1055025271333333</v>
       </c>
       <c r="N20" s="0">
-        <v>0.30385438440000007</v>
+        <v>0.16107741810000001</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.0059314099333333354</v>
+        <v>-0.30926004784</v>
       </c>
       <c r="B21" s="0">
-        <v>0.10020624789999999</v>
+        <v>-0.24355046883333334</v>
       </c>
       <c r="C21" s="0">
-        <v>0.29779540800999998</v>
+        <v>-0.18719146766666669</v>
       </c>
       <c r="D21" s="0">
-        <v>0.16860516826666669</v>
+        <v>-0.073938857926666671</v>
       </c>
       <c r="E21" s="0">
-        <v>0.043761987466666673</v>
+        <v>-0.19469586217333334</v>
       </c>
       <c r="F21" s="0">
-        <v>-0.028635975636666661</v>
+        <v>-0.19238351428</v>
       </c>
       <c r="G21" s="0">
-        <v>0.16161629782</v>
+        <v>-0.17557289772633333</v>
       </c>
       <c r="H21" s="0">
-        <v>0.12051509949</v>
+        <v>0.04086364784333333</v>
       </c>
       <c r="I21" s="0">
-        <v>-0.025838914800000001</v>
+        <v>-0.11246959193333333</v>
       </c>
       <c r="J21" s="0">
-        <v>-0.020541337199999992</v>
+        <v>-0.58522318259666672</v>
       </c>
       <c r="K21" s="0">
-        <v>0.50874192678999997</v>
+        <v>-0.094961780846666663</v>
       </c>
       <c r="L21" s="0">
-        <v>0.31627125110000004</v>
+        <v>-0.079797723833333334</v>
       </c>
       <c r="M21" s="0">
-        <v>0.15737713710666665</v>
+        <v>-0.081954116533333329</v>
       </c>
       <c r="N21" s="0">
-        <v>-0.16362610949999998</v>
+        <v>-0.21875668430000003</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.33232987263499997</v>
+        <v>-0.37019348839999999</v>
       </c>
       <c r="B22" s="0">
-        <v>-0.30843250534999994</v>
+        <v>-0.94405468619999999</v>
       </c>
       <c r="C22" s="0">
-        <v>-0.36869597374999996</v>
+        <v>-0.39878956614999994</v>
       </c>
       <c r="D22" s="0">
-        <v>-0.59430973450000002</v>
+        <v>-0.0329126052</v>
       </c>
       <c r="E22" s="0">
-        <v>-0.22658791079999996</v>
+        <v>-0.29769736935000002</v>
       </c>
       <c r="F22" s="0">
-        <v>-0.27302637230000004</v>
+        <v>-0.16509432515000005</v>
       </c>
       <c r="G22" s="0">
-        <v>-0.22325774919999999</v>
+        <v>0.17922749599999999</v>
       </c>
       <c r="H22" s="0">
-        <v>-0.44730655809999997</v>
+        <v>-0.047892023000000006</v>
       </c>
       <c r="I22" s="0">
-        <v>-0.22984456975000001</v>
+        <v>-0.22664904399999997</v>
       </c>
       <c r="J22" s="0">
-        <v>-0.25391458350000001</v>
+        <v>-0.36159145049999986</v>
       </c>
       <c r="K22" s="0">
-        <v>-0.27936720440000001</v>
+        <v>-0.61745819400000013</v>
       </c>
       <c r="L22" s="0">
-        <v>-0.37773854354999997</v>
+        <v>-0.29821812650000001</v>
       </c>
       <c r="M22" s="0">
-        <v>-0.49659871205000006</v>
+        <v>-0.10376119449999999</v>
       </c>
       <c r="N22" s="0">
-        <v>-0.73905137185000003</v>
+        <v>-0.76646934800000011</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.050019972699999998</v>
+        <v>0.23475137473333332</v>
       </c>
       <c r="B23" s="0">
-        <v>0.45277370609999995</v>
+        <v>0.65730255083333333</v>
       </c>
       <c r="C23" s="0">
-        <v>0.12765275390000005</v>
+        <v>0.57150744889999994</v>
       </c>
       <c r="D23" s="0">
-        <v>-0.073675763633333322</v>
+        <v>0.0036169653333333329</v>
       </c>
       <c r="E23" s="0">
-        <v>-0.15210825088333332</v>
+        <v>0.11559018313333334</v>
       </c>
       <c r="F23" s="0">
-        <v>-0.21650593075999999</v>
+        <v>0.044562082999999995</v>
       </c>
       <c r="G23" s="0">
-        <v>-0.26792879766666666</v>
+        <v>-0.043435943173333325</v>
       </c>
       <c r="H23" s="0">
-        <v>-0.1229054367</v>
+        <v>0.14950601852333331</v>
       </c>
       <c r="I23" s="0">
-        <v>0.21020284813333331</v>
+        <v>0.22513504069999998</v>
       </c>
       <c r="J23" s="0">
-        <v>0.13022653349999999</v>
+        <v>-0.029618573966666673</v>
       </c>
       <c r="K23" s="0">
-        <v>0.03116734917999997</v>
+        <v>0.56856124210000003</v>
       </c>
       <c r="L23" s="0">
-        <v>0.19932944466666669</v>
+        <v>0.25105388786666666</v>
       </c>
       <c r="M23" s="0">
-        <v>0.17714436369999995</v>
+        <v>0.31943942736666664</v>
       </c>
       <c r="N23" s="0">
-        <v>0.45183118367999997</v>
+        <v>0.54401854713333331</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.061559374903333332</v>
+        <v>0.20470809706666668</v>
       </c>
       <c r="B24" s="0">
-        <v>0.16790865263333332</v>
+        <v>0.36551967934666663</v>
       </c>
       <c r="C24" s="0">
-        <v>0.18786565416000001</v>
+        <v>0.56722494590000005</v>
       </c>
       <c r="D24" s="0">
-        <v>-0.1753967525</v>
+        <v>-0.0047077726166666707</v>
       </c>
       <c r="E24" s="0">
-        <v>-0.18361837415666668</v>
+        <v>0.11420801893333334</v>
       </c>
       <c r="F24" s="0">
-        <v>0.0094235220933333308</v>
+        <v>0.40224465174000001</v>
       </c>
       <c r="G24" s="0">
-        <v>0.15661612826000001</v>
+        <v>0.43384463946666668</v>
       </c>
       <c r="H24" s="0">
-        <v>-0.035698078586666668</v>
+        <v>0.31566815106333335</v>
       </c>
       <c r="I24" s="0">
-        <v>-0.30643315519999997</v>
+        <v>-0.16366876759000001</v>
       </c>
       <c r="J24" s="0">
-        <v>0.17996247766666662</v>
+        <v>0.68310318743333331</v>
       </c>
       <c r="K24" s="0">
-        <v>0.33912679372333332</v>
+        <v>0.79415528996666662</v>
       </c>
       <c r="L24" s="0">
-        <v>-0.17723912376666665</v>
+        <v>0.34592307640000003</v>
       </c>
       <c r="M24" s="0">
-        <v>-0.49964283037666668</v>
+        <v>0.3548835478366667</v>
       </c>
       <c r="N24" s="0">
-        <v>-0.63049983696666667</v>
+        <v>-0.38244945150000004</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.17042309990000001</v>
+        <v>0.40641499809999998</v>
       </c>
       <c r="B25" s="0">
-        <v>0.022777913069999999</v>
+        <v>0.058537873079999997</v>
       </c>
       <c r="C25" s="0">
-        <v>-0.52998066519999998</v>
+        <v>0.1371694621</v>
       </c>
       <c r="D25" s="0">
-        <v>-0.065715070400000006</v>
+        <v>-0.63981483029999997</v>
       </c>
       <c r="E25" s="0">
-        <v>-0.80923686949999996</v>
+        <v>-0.35505352810000002</v>
       </c>
       <c r="F25" s="0">
-        <v>-1.50581448</v>
+        <v>0.15542681259999999</v>
       </c>
       <c r="G25" s="0">
-        <v>-1.1102372030000001</v>
+        <v>0.3950997249</v>
       </c>
       <c r="H25" s="0">
-        <v>-0.76152469420000002</v>
+        <v>0.61573689099999995</v>
       </c>
       <c r="I25" s="0">
-        <v>-1.410698443</v>
+        <v>0.30694408480000002</v>
       </c>
       <c r="J25" s="0">
-        <v>-0.72606310159999998</v>
+        <v>0.072353132469999998</v>
       </c>
       <c r="K25" s="0">
-        <v>-0.39336693839999998</v>
+        <v>0.53306853030000001</v>
       </c>
       <c r="L25" s="0">
-        <v>-1.054541575</v>
+        <v>0.91086789339999996</v>
       </c>
       <c r="M25" s="0">
-        <v>-0.19442158640000001</v>
+        <v>1.300486998</v>
       </c>
       <c r="N25" s="0">
-        <v>-0.66475379729999995</v>
+        <v>0.40488430549999999</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.32609578680000001</v>
+        <v>0.28500416403333334</v>
       </c>
       <c r="B26" s="0">
-        <v>0.44607995026666664</v>
+        <v>-0.0025236969700000076</v>
       </c>
       <c r="C26" s="0">
-        <v>0.47601680643333327</v>
+        <v>-0.14979534016666668</v>
       </c>
       <c r="D26" s="0">
-        <v>-0.046660944199999978</v>
+        <v>-0.51019210179999996</v>
       </c>
       <c r="E26" s="0">
-        <v>-0.28615102681999999</v>
+        <v>-0.4791145653333333</v>
       </c>
       <c r="F26" s="0">
-        <v>0.11135264290000001</v>
+        <v>-0.36455340328300001</v>
       </c>
       <c r="G26" s="0">
-        <v>0.069102120400000008</v>
+        <v>-0.14481882482333333</v>
       </c>
       <c r="H26" s="0">
-        <v>0.14178555215333336</v>
+        <v>-0.2497032914</v>
       </c>
       <c r="I26" s="0">
-        <v>0.40748439962999994</v>
+        <v>-0.16084233913333332</v>
       </c>
       <c r="J26" s="0">
-        <v>0.45161531163333329</v>
+        <v>0.23056223428666667</v>
       </c>
       <c r="K26" s="0">
-        <v>0.13223116648</v>
+        <v>-0.61243467946666674</v>
       </c>
       <c r="L26" s="0">
-        <v>0.25357701059999999</v>
+        <v>-0.38603982130333331</v>
       </c>
       <c r="M26" s="0">
-        <v>0.52277093083333337</v>
+        <v>-0.20642685383333337</v>
       </c>
       <c r="N26" s="0">
-        <v>0.80585081270000014</v>
+        <v>0.024356623599999998</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.072983321206666674</v>
+        <v>-0.068008165233333306</v>
       </c>
       <c r="B27" s="0">
-        <v>-0.40580590928999999</v>
+        <v>-0.15570332757333333</v>
       </c>
       <c r="C27" s="0">
-        <v>0.12617016622666666</v>
+        <v>0.059876018246666662</v>
       </c>
       <c r="D27" s="0">
-        <v>0.47395096883333337</v>
+        <v>0.51892950043333341</v>
       </c>
       <c r="E27" s="0">
-        <v>0.51246277886000002</v>
+        <v>0.59172598003333332</v>
       </c>
       <c r="F27" s="0">
-        <v>0.14842956786666664</v>
+        <v>-0.15224042040333333</v>
       </c>
       <c r="G27" s="0">
-        <v>-0.36683525106999992</v>
+        <v>-0.37127833223333329</v>
       </c>
       <c r="H27" s="0">
-        <v>-0.13919283049</v>
+        <v>-0.16703694712333331</v>
       </c>
       <c r="I27" s="0">
-        <v>0.11115428971500001</v>
+        <v>-0.0087073314333333349</v>
       </c>
       <c r="J27" s="0">
-        <v>0.1389473272</v>
+        <v>-0.12341345824666666</v>
       </c>
       <c r="K27" s="0">
-        <v>-0.082788227836666672</v>
+        <v>-0.010927189166666684</v>
       </c>
       <c r="L27" s="0">
-        <v>0.25381039395666666</v>
+        <v>0.22186169089999999</v>
       </c>
       <c r="M27" s="0">
-        <v>0.24822338747699998</v>
+        <v>0.25472959589999999</v>
       </c>
       <c r="N27" s="0">
-        <v>0.64931697963333335</v>
+        <v>0.060259415466666688</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.3193809323666667</v>
+        <v>-0.35069968473333341</v>
       </c>
       <c r="B28" s="0">
-        <v>0.38452710463333334</v>
+        <v>-0.39171408463333335</v>
       </c>
       <c r="C28" s="0">
-        <v>0.18858081896666667</v>
+        <v>-0.39287154219999998</v>
       </c>
       <c r="D28" s="0">
-        <v>-0.15492324478</v>
+        <v>-0.68102624573333337</v>
       </c>
       <c r="E28" s="0">
-        <v>-0.17279141833333334</v>
+        <v>-0.81094827356666677</v>
       </c>
       <c r="F28" s="0">
-        <v>-0.14852386945999999</v>
+        <v>-0.75911751026666663</v>
       </c>
       <c r="G28" s="0">
-        <v>0.12875257996666667</v>
+        <v>-0.33934302683333334</v>
       </c>
       <c r="H28" s="0">
-        <v>0.61952430245666668</v>
+        <v>0.0036966688500000102</v>
       </c>
       <c r="I28" s="0">
-        <v>0.30521424703333339</v>
+        <v>-0.25675661766666669</v>
       </c>
       <c r="J28" s="0">
-        <v>0.41179397156666669</v>
+        <v>0.026167481650000008</v>
       </c>
       <c r="K28" s="0">
-        <v>-0.12285968416666665</v>
+        <v>-0.63036996423333336</v>
       </c>
       <c r="L28" s="0">
-        <v>-0.18915501339999996</v>
+        <v>-0.87890974244666664</v>
       </c>
       <c r="M28" s="0">
-        <v>-0.28988398676666671</v>
+        <v>-1.1384091160666667</v>
       </c>
       <c r="N28" s="0">
-        <v>0.31762450933333325</v>
+        <v>-0.36447702166666662</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.04973389474333334</v>
+        <v>0.12782057966666668</v>
       </c>
       <c r="B29" s="0">
-        <v>-0.36839062796666666</v>
+        <v>0.19240154428333334</v>
       </c>
       <c r="C29" s="0">
-        <v>-0.035270256752666672</v>
+        <v>0.40509962006666661</v>
       </c>
       <c r="D29" s="0">
-        <v>0.28221410661999996</v>
+        <v>0.36238620093333335</v>
       </c>
       <c r="E29" s="0">
-        <v>0.12072801826666668</v>
+        <v>0.26184034372333337</v>
       </c>
       <c r="F29" s="0">
-        <v>-0.11551612298666665</v>
+        <v>0.15101176853333334</v>
       </c>
       <c r="G29" s="0">
-        <v>-0.13728124730333333</v>
+        <v>0.097720742240000005</v>
       </c>
       <c r="H29" s="0">
-        <v>-0.23694543378333333</v>
+        <v>0.039966567870000004</v>
       </c>
       <c r="I29" s="0">
-        <v>-0.01355267096666668</v>
+        <v>0.21748141173333335</v>
       </c>
       <c r="J29" s="0">
-        <v>0.40207272010333339</v>
+        <v>0.37279152669999999</v>
       </c>
       <c r="K29" s="0">
-        <v>-0.21649763593333335</v>
+        <v>0.30654804966666666</v>
       </c>
       <c r="L29" s="0">
-        <v>-0.42303851543999998</v>
+        <v>-0.2416339418</v>
       </c>
       <c r="M29" s="0">
-        <v>-0.086036155200000006</v>
+        <v>0.1883336011</v>
       </c>
       <c r="N29" s="0">
-        <v>-0.059630301670999995</v>
+        <v>0.20823843956666666</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.026098531523333319</v>
+        <v>-0.1218977478</v>
       </c>
       <c r="B30" s="0">
-        <v>-0.018487106866666676</v>
+        <v>-0.023194075333333314</v>
       </c>
       <c r="C30" s="0">
-        <v>-0.1237196117</v>
+        <v>-0.045014511666666653</v>
       </c>
       <c r="D30" s="0">
-        <v>-0.060879222333333323</v>
+        <v>-0.42774471120333329</v>
       </c>
       <c r="E30" s="0">
-        <v>-0.033508565963333348</v>
+        <v>-0.65240407863333338</v>
       </c>
       <c r="F30" s="0">
-        <v>-0.24935176546333335</v>
+        <v>-0.52234367189999997</v>
       </c>
       <c r="G30" s="0">
-        <v>-0.4708701826533333</v>
+        <v>-0.25904513846666666</v>
       </c>
       <c r="H30" s="0">
-        <v>-0.25666462386533334</v>
+        <v>-0.13486500283666666</v>
       </c>
       <c r="I30" s="0">
-        <v>-0.21545540196666665</v>
+        <v>-0.26966787680333332</v>
       </c>
       <c r="J30" s="0">
-        <v>-0.31817083666666662</v>
+        <v>-0.31456135190000006</v>
       </c>
       <c r="K30" s="0">
-        <v>-0.11370766647666668</v>
+        <v>0.0050619371700000027</v>
       </c>
       <c r="L30" s="0">
-        <v>-0.51679206078333328</v>
+        <v>-0.8405110760333333</v>
       </c>
       <c r="M30" s="0">
-        <v>-0.61963500253333337</v>
+        <v>-0.46662900909999999</v>
       </c>
       <c r="N30" s="0">
-        <v>-0.28799687456666667</v>
+        <v>-0.13386125036666668</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.18824401456666665</v>
+        <v>0.23709760749999997</v>
       </c>
       <c r="B31" s="0">
-        <v>0.0051633727533333213</v>
+        <v>0.4316742428</v>
       </c>
       <c r="C31" s="0">
-        <v>-0.024692333400000006</v>
+        <v>0.10898630847666668</v>
       </c>
       <c r="D31" s="0">
-        <v>0.0009403674966666683</v>
+        <v>0.06752889933333335</v>
       </c>
       <c r="E31" s="0">
-        <v>-0.023299359600000014</v>
+        <v>0.045575414003333335</v>
       </c>
       <c r="F31" s="0">
-        <v>0.11386343509666665</v>
+        <v>0.0395822048</v>
       </c>
       <c r="G31" s="0">
-        <v>0.29307858243333335</v>
+        <v>0.17337442433333336</v>
       </c>
       <c r="H31" s="0">
-        <v>0.077994452963333322</v>
+        <v>-0.02825961212666667</v>
       </c>
       <c r="I31" s="0">
-        <v>-0.073782085573333336</v>
+        <v>-0.044053833320000006</v>
       </c>
       <c r="J31" s="0">
-        <v>-0.05814143603333332</v>
+        <v>-0.074282638393333336</v>
       </c>
       <c r="K31" s="0">
-        <v>-0.19940332196666669</v>
+        <v>-0.028328787516666662</v>
       </c>
       <c r="L31" s="0">
-        <v>-0.32236531653333333</v>
+        <v>-0.11747729896666666</v>
       </c>
       <c r="M31" s="0">
-        <v>-0.45576305563333336</v>
+        <v>-0.070791340833333341</v>
       </c>
       <c r="N31" s="0">
-        <v>-0.17797346936666666</v>
+        <v>0.48816837027333332</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.14906999031666668</v>
+        <v>0.52706195463333327</v>
       </c>
       <c r="B32" s="0">
-        <v>0.15278399774333332</v>
+        <v>0.27948952546666667</v>
       </c>
       <c r="C32" s="0">
-        <v>0.18240519450000001</v>
+        <v>0.25735795249999999</v>
       </c>
       <c r="D32" s="0">
-        <v>0.16393231423000001</v>
+        <v>0.14383844123333334</v>
       </c>
       <c r="E32" s="0">
-        <v>-0.04752512058999999</v>
+        <v>-0.12684867454666668</v>
       </c>
       <c r="F32" s="0">
-        <v>0.31993036523333335</v>
+        <v>0.27962468293333331</v>
       </c>
       <c r="G32" s="0">
-        <v>0.027603167933333339</v>
+        <v>-0.11456618282666665</v>
       </c>
       <c r="H32" s="0">
-        <v>-0.22637729483333335</v>
+        <v>-0.10611155798666667</v>
       </c>
       <c r="I32" s="0">
-        <v>-0.049620772766666654</v>
+        <v>-0.197206464</v>
       </c>
       <c r="J32" s="0">
-        <v>-0.34790527343333327</v>
+        <v>-0.84592237460000008</v>
       </c>
       <c r="K32" s="0">
-        <v>0.095672367666666688</v>
+        <v>0.17461947689999999</v>
       </c>
       <c r="L32" s="0">
-        <v>-0.019234036533333332</v>
+        <v>0.32517355973333334</v>
       </c>
       <c r="M32" s="0">
-        <v>-0.16113407333333329</v>
+        <v>0.14253497539333335</v>
       </c>
       <c r="N32" s="0">
-        <v>0.29813146904333337</v>
+        <v>-0.31959759562666668</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.31786346460566667</v>
+        <v>-0.16692430220000001</v>
       </c>
       <c r="B33" s="0">
-        <v>-0.71940835626666677</v>
+        <v>-0.44680176896666662</v>
       </c>
       <c r="C33" s="0">
-        <v>-0.53903917300000004</v>
+        <v>0.047576379719999999</v>
       </c>
       <c r="D33" s="0">
-        <v>-0.34238654060000001</v>
+        <v>0.043382640833333326</v>
       </c>
       <c r="E33" s="0">
-        <v>-0.27154488215333333</v>
+        <v>-0.21451860492333333</v>
       </c>
       <c r="F33" s="0">
-        <v>-0.76146810227333328</v>
+        <v>-0.35225826465000004</v>
       </c>
       <c r="G33" s="0">
-        <v>-0.42925344096666668</v>
+        <v>-0.00042891086666666894</v>
       </c>
       <c r="H33" s="0">
-        <v>-0.31156565016666665</v>
+        <v>0.045756663966666646</v>
       </c>
       <c r="I33" s="0">
-        <v>-0.27539481396666665</v>
+        <v>0.21568024766666669</v>
       </c>
       <c r="J33" s="0">
-        <v>-0.33894544873333327</v>
+        <v>-0.026264882200000023</v>
       </c>
       <c r="K33" s="0">
-        <v>-0.50132250002000001</v>
+        <v>-0.13742863867666666</v>
       </c>
       <c r="L33" s="0">
-        <v>-0.25063890786999998</v>
+        <v>-0.18876686769666665</v>
       </c>
       <c r="M33" s="0">
-        <v>0.18962252536666668</v>
+        <v>0.12810059153333331</v>
       </c>
       <c r="N33" s="0">
-        <v>0.02387674359999999</v>
+        <v>-0.016238526250000013</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.32540434010000002</v>
+        <v>0.33419104230000002</v>
       </c>
       <c r="B34" s="0">
-        <v>0.43127504850000004</v>
+        <v>0.68285738543333319</v>
       </c>
       <c r="C34" s="0">
-        <v>0.14165851790666667</v>
+        <v>0.21168810983333333</v>
       </c>
       <c r="D34" s="0">
-        <v>-0.012451055800000018</v>
+        <v>-0.20782500147333335</v>
       </c>
       <c r="E34" s="0">
-        <v>0.17655750234666667</v>
+        <v>-0.14369348582666666</v>
       </c>
       <c r="F34" s="0">
-        <v>0.15728024240666669</v>
+        <v>0.12467035534300001</v>
       </c>
       <c r="G34" s="0">
-        <v>-0.067772244310000007</v>
+        <v>0.090702065213333335</v>
       </c>
       <c r="H34" s="0">
-        <v>-0.20216794804133334</v>
+        <v>0.071046666843333314</v>
       </c>
       <c r="I34" s="0">
-        <v>0.13710836346666666</v>
+        <v>-0.032579103800000002</v>
       </c>
       <c r="J34" s="0">
-        <v>0.015249347700000008</v>
+        <v>-0.079191677899999993</v>
       </c>
       <c r="K34" s="0">
-        <v>0.34747941980999997</v>
+        <v>0.39644678709999998</v>
       </c>
       <c r="L34" s="0">
-        <v>0.041887319466666663</v>
+        <v>0.13467692672999998</v>
       </c>
       <c r="M34" s="0">
-        <v>-0.059286262926666687</v>
+        <v>-0.16663472106666666</v>
       </c>
       <c r="N34" s="0">
-        <v>0.092048720500000014</v>
+        <v>-0.18669938860000002</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>-0.089117947493333335</v>
+        <v>-0.078359348800000006</v>
       </c>
       <c r="B35" s="0">
-        <v>-0.28065831226666665</v>
+        <v>0.022659661066666652</v>
       </c>
       <c r="C35" s="0">
-        <v>-0.28798723483333338</v>
+        <v>-0.024409900400000017</v>
       </c>
       <c r="D35" s="0">
-        <v>0.065090506196666661</v>
+        <v>0.015752907280000002</v>
       </c>
       <c r="E35" s="0">
-        <v>0.10548507416666665</v>
+        <v>0.027253222673333331</v>
       </c>
       <c r="F35" s="0">
-        <v>-0.13787537773333333</v>
+        <v>-0.29329251103333337</v>
       </c>
       <c r="G35" s="0">
-        <v>-0.29617070869999995</v>
+        <v>-0.41404561876666673</v>
       </c>
       <c r="H35" s="0">
-        <v>-0.17142730140000004</v>
+        <v>-0.14267288976666667</v>
       </c>
       <c r="I35" s="0">
-        <v>0.056195205033333341</v>
+        <v>-0.071857077899999997</v>
       </c>
       <c r="J35" s="0">
-        <v>-0.051983269199999994</v>
+        <v>0.06844960992299999</v>
       </c>
       <c r="K35" s="0">
-        <v>-0.51304041252333332</v>
+        <v>-0.59593264286666658</v>
       </c>
       <c r="L35" s="0">
-        <v>-0.23990617783333332</v>
+        <v>-0.40343349608166673</v>
       </c>
       <c r="M35" s="0">
-        <v>-0.48025605916666664</v>
+        <v>-0.53531145406666669</v>
       </c>
       <c r="N35" s="0">
-        <v>-0.28417418360000002</v>
+        <v>-0.81095154046666662</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>-0.22884423034666668</v>
+        <v>-0.080234146000000006</v>
       </c>
       <c r="B36" s="0">
-        <v>-0.61319159420000002</v>
+        <v>-0.083776212166666683</v>
       </c>
       <c r="C36" s="0">
-        <v>-0.29090441003333334</v>
+        <v>0.10931284609999999</v>
       </c>
       <c r="D36" s="0">
-        <v>0.15095244090000001</v>
+        <v>0.4262729418666667</v>
       </c>
       <c r="E36" s="0">
-        <v>0.37243639149999996</v>
+        <v>0.27388350690999996</v>
       </c>
       <c r="F36" s="0">
-        <v>-0.033030853566666685</v>
+        <v>0.27667564051666665</v>
       </c>
       <c r="G36" s="0">
-        <v>-0.17985158990000003</v>
+        <v>0.28307093955000001</v>
       </c>
       <c r="H36" s="0">
-        <v>0.015714854933333355</v>
+        <v>0.14540283236666668</v>
       </c>
       <c r="I36" s="0">
-        <v>0.23950510336666667</v>
+        <v>0.4381164176766667</v>
       </c>
       <c r="J36" s="0">
-        <v>0.28380368966666675</v>
+        <v>0.52016582303333336</v>
       </c>
       <c r="K36" s="0">
-        <v>-0.42369215479999994</v>
+        <v>0.01354326742</v>
       </c>
       <c r="L36" s="0">
-        <v>0.019228912166666667</v>
+        <v>0.52962708293333327</v>
       </c>
       <c r="M36" s="0">
-        <v>-0.13021385216666662</v>
+        <v>0.046794394540000041</v>
       </c>
       <c r="N36" s="0">
-        <v>0.37204641926666665</v>
+        <v>0.40726683066666663</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>-0.14063106986666665</v>
+        <v>0.21974152560000001</v>
       </c>
       <c r="B37" s="0">
-        <v>-0.45038387922333339</v>
+        <v>-0.078516254966666657</v>
       </c>
       <c r="C37" s="0">
-        <v>-0.10653852366666668</v>
+        <v>-0.079358354766666681</v>
       </c>
       <c r="D37" s="0">
-        <v>-0.17843090635333336</v>
+        <v>0.10235343760666667</v>
       </c>
       <c r="E37" s="0">
-        <v>0.060302615000000004</v>
+        <v>0.078567079599999992</v>
       </c>
       <c r="F37" s="0">
-        <v>0.059015271499999931</v>
+        <v>0.085477143533333313</v>
       </c>
       <c r="G37" s="0">
-        <v>-0.24248908793333332</v>
+        <v>0.3895056311466667</v>
       </c>
       <c r="H37" s="0">
-        <v>0.021790837366666687</v>
+        <v>0.43963153226666662</v>
       </c>
       <c r="I37" s="0">
-        <v>-0.03535597046666672</v>
+        <v>-0.045712517166666668</v>
       </c>
       <c r="J37" s="0">
-        <v>0.042745361366666658</v>
+        <v>0.22432944066666669</v>
       </c>
       <c r="K37" s="0">
-        <v>0.31747833666666664</v>
+        <v>0.057161684883333341</v>
       </c>
       <c r="L37" s="0">
-        <v>0.30817273946666662</v>
+        <v>-0.043915459700000013</v>
       </c>
       <c r="M37" s="0">
-        <v>0.19945028806666665</v>
+        <v>-0.12083946723999998</v>
       </c>
       <c r="N37" s="0">
-        <v>-0.55994921229166661</v>
+        <v>-0.41812886205999994</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>-0.14112629763333331</v>
+        <v>-0.17765532349000002</v>
       </c>
       <c r="B38" s="0">
-        <v>-0.019725440349999995</v>
+        <v>-0.044043084300000035</v>
       </c>
       <c r="C38" s="0">
-        <v>-0.44287372363333333</v>
+        <v>-0.27504376656666668</v>
       </c>
       <c r="D38" s="0">
-        <v>-0.44725494273333327</v>
+        <v>-0.062154264966666727</v>
       </c>
       <c r="E38" s="0">
-        <v>-0.20557622336666667</v>
+        <v>0.031079139299999985</v>
       </c>
       <c r="F38" s="0">
-        <v>-0.38289757576666666</v>
+        <v>-0.17429591859999996</v>
       </c>
       <c r="G38" s="0">
-        <v>-0.52953663886666669</v>
+        <v>-0.27171284276666663</v>
       </c>
       <c r="H38" s="0">
-        <v>0.24616972940000001</v>
+        <v>0.070095610199999991</v>
       </c>
       <c r="I38" s="0">
-        <v>-0.23172066823000001</v>
+        <v>0.088513803566666674</v>
       </c>
       <c r="J38" s="0">
-        <v>-1.267672828</v>
+        <v>-0.59239772060000007</v>
       </c>
       <c r="K38" s="0">
-        <v>-0.50360051346666668</v>
+        <v>0.18421066210000001</v>
       </c>
       <c r="L38" s="0">
-        <v>-0.3924448646</v>
+        <v>-0.0090141092133333347</v>
       </c>
       <c r="M38" s="0">
-        <v>-0.12822865510000001</v>
+        <v>0.82095515406666664</v>
       </c>
       <c r="N38" s="0">
-        <v>-1.4201853653333334</v>
+        <v>-0.32888345066666669</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.20554554658966664</v>
+        <v>0.056335039766666678</v>
       </c>
       <c r="B39" s="0">
-        <v>-0.066627993433333338</v>
+        <v>-0.11670619223333333</v>
       </c>
       <c r="C39" s="0">
-        <v>0.31243749726666664</v>
+        <v>-0.43088413097666667</v>
       </c>
       <c r="D39" s="0">
-        <v>-0.1417179123</v>
+        <v>-0.78458204143333321</v>
       </c>
       <c r="E39" s="0">
-        <v>0.031588629223333331</v>
+        <v>-0.47394389643333334</v>
       </c>
       <c r="F39" s="0">
-        <v>0.11245185978333334</v>
+        <v>-0.46686076246666669</v>
       </c>
       <c r="G39" s="0">
-        <v>-0.042361084210000004</v>
+        <v>-0.39056944873333332</v>
       </c>
       <c r="H39" s="0">
-        <v>-0.092943284670000015</v>
+        <v>-0.19382691842666666</v>
       </c>
       <c r="I39" s="0">
-        <v>0.16617719147000001</v>
+        <v>-0.29985138179999998</v>
       </c>
       <c r="J39" s="0">
-        <v>0.086231246133333328</v>
+        <v>-0.48696226230000006</v>
       </c>
       <c r="K39" s="0">
-        <v>0.37271154793333333</v>
+        <v>-0.34411856699999999</v>
       </c>
       <c r="L39" s="0">
-        <v>0.40615335250000001</v>
+        <v>-0.48268252824333335</v>
       </c>
       <c r="M39" s="0">
-        <v>0.46167915756666672</v>
+        <v>-0.56739245036666663</v>
       </c>
       <c r="N39" s="0">
-        <v>0.56256549873333328</v>
+        <v>-0.52775778993333333</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>-0.16875194305666666</v>
+        <v>0.031064817456666675</v>
       </c>
       <c r="B40" s="0">
-        <v>0.090593069799999995</v>
+        <v>0.2638614114966667</v>
       </c>
       <c r="C40" s="0">
-        <v>0.081704530866666666</v>
+        <v>0.30951914093333338</v>
       </c>
       <c r="D40" s="0">
-        <v>0.3004407029666667</v>
+        <v>-0.080361362866666675</v>
       </c>
       <c r="E40" s="0">
-        <v>0.2396428679</v>
+        <v>-0.078358462816666655</v>
       </c>
       <c r="F40" s="0">
-        <v>-0.1120218592</v>
+        <v>0.008373945366666663</v>
       </c>
       <c r="G40" s="0">
-        <v>-0.073861863766666661</v>
+        <v>0.41544538496666666</v>
       </c>
       <c r="H40" s="0">
-        <v>-0.016585844979999983</v>
+        <v>0.27997618556166665</v>
       </c>
       <c r="I40" s="0">
-        <v>0.12898913631333334</v>
+        <v>0.096266071200000011</v>
       </c>
       <c r="J40" s="0">
-        <v>-0.092398111393333329</v>
+        <v>0.33800479712666665</v>
       </c>
       <c r="K40" s="0">
-        <v>0.045752514166666668</v>
+        <v>0.18609429816666667</v>
       </c>
       <c r="L40" s="0">
-        <v>0.53821542726666671</v>
+        <v>-0.24754092235000003</v>
       </c>
       <c r="M40" s="0">
-        <v>1.0868753823999999</v>
+        <v>0.00042992979999996922</v>
       </c>
       <c r="N40" s="0">
-        <v>0.53066777298000001</v>
+        <v>0.31934599758666665</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>0.31891759984999996</v>
+        <v>0.32478956554666666</v>
       </c>
       <c r="B41" s="0">
-        <v>-0.10361435913333329</v>
+        <v>0.033673438206666663</v>
       </c>
       <c r="C41" s="0">
-        <v>-0.11006645765666667</v>
+        <v>-0.30877846730000003</v>
       </c>
       <c r="D41" s="0">
-        <v>0.16143283493333335</v>
+        <v>-0.35048020559999998</v>
       </c>
       <c r="E41" s="0">
-        <v>0.019679288933333355</v>
+        <v>-0.43864335533333332</v>
       </c>
       <c r="F41" s="0">
-        <v>-0.1930383497666667</v>
+        <v>-0.27210510389999998</v>
       </c>
       <c r="G41" s="0">
-        <v>-0.59531344696666666</v>
+        <v>-0.20560162984666666</v>
       </c>
       <c r="H41" s="0">
-        <v>-0.35471720686666669</v>
+        <v>-0.03793901420000001</v>
       </c>
       <c r="I41" s="0">
-        <v>-0.0018189255133333308</v>
+        <v>-0.16846096237333333</v>
       </c>
       <c r="J41" s="0">
-        <v>0.45199739230333336</v>
+        <v>-0.32543070740000002</v>
       </c>
       <c r="K41" s="0">
-        <v>-0.12770172303333335</v>
+        <v>-0.47941746816666669</v>
       </c>
       <c r="L41" s="0">
-        <v>-0.54518030210000001</v>
+        <v>-0.01768678563333333</v>
       </c>
       <c r="M41" s="0">
-        <v>-0.29376286719333333</v>
+        <v>-0.28426087543333334</v>
       </c>
       <c r="N41" s="0">
-        <v>0.66098571483333346</v>
+        <v>-0.35339601073333338</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>-0.10003285178999999</v>
+        <v>-0.18150004813333334</v>
       </c>
       <c r="B42" s="0">
-        <v>-0.19089176838666666</v>
+        <v>-0.41339148756666666</v>
       </c>
       <c r="C42" s="0">
-        <v>-0.12242047163333332</v>
+        <v>-0.280641317</v>
       </c>
       <c r="D42" s="0">
-        <v>-0.25581499456666673</v>
+        <v>-0.47964967103333334</v>
       </c>
       <c r="E42" s="0">
-        <v>-0.37519930633333337</v>
+        <v>-0.59682739993333334</v>
       </c>
       <c r="F42" s="0">
-        <v>-0.096474158800000029</v>
+        <v>-0.07685261003333331</v>
       </c>
       <c r="G42" s="0">
-        <v>-0.29024577643333332</v>
+        <v>-0.30222447046666673</v>
       </c>
       <c r="H42" s="0">
-        <v>-0.065712022483999988</v>
+        <v>-0.21458684597480002</v>
       </c>
       <c r="I42" s="0">
-        <v>-0.23019712728666666</v>
+        <v>-0.54369795456666659</v>
       </c>
       <c r="J42" s="0">
-        <v>-0.19471032983333333</v>
+        <v>-0.10137048153333332</v>
       </c>
       <c r="K42" s="0">
-        <v>-0.30506770906666664</v>
+        <v>-0.17680775566666665</v>
       </c>
       <c r="L42" s="0">
-        <v>0.15513181568000001</v>
+        <v>-0.11726827589666665</v>
       </c>
       <c r="M42" s="0">
-        <v>0.30735629406333337</v>
+        <v>-0.19033031123999999</v>
       </c>
       <c r="N42" s="0">
-        <v>-0.30466594576666667</v>
+        <v>-0.93914731666666673</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>-0.066773500333333333</v>
+        <v>0.083428060266666673</v>
       </c>
       <c r="B43" s="0">
-        <v>0.26620734046666666</v>
+        <v>0.044604527620000008</v>
       </c>
       <c r="C43" s="0">
-        <v>-0.041701063996666655</v>
+        <v>0.16808949213333335</v>
       </c>
       <c r="D43" s="0">
-        <v>-0.26462464946333336</v>
+        <v>-0.04397364707999999</v>
       </c>
       <c r="E43" s="0">
-        <v>-0.056766430393333338</v>
+        <v>-0.10616256550999999</v>
       </c>
       <c r="F43" s="0">
-        <v>-0.11611593756666665</v>
+        <v>-0.16372106263333333</v>
       </c>
       <c r="G43" s="0">
-        <v>-0.086345154133333338</v>
+        <v>-0.026881926766666658</v>
       </c>
       <c r="H43" s="0">
-        <v>0.12073324362666665</v>
+        <v>-0.0029899660666666641</v>
       </c>
       <c r="I43" s="0">
-        <v>-0.13173778173666664</v>
+        <v>-0.16419374680000001</v>
       </c>
       <c r="J43" s="0">
-        <v>0.082988401000000003</v>
+        <v>0.54630377915666672</v>
       </c>
       <c r="K43" s="0">
-        <v>0.016852048803333342</v>
+        <v>0.18547652965399999</v>
       </c>
       <c r="L43" s="0">
-        <v>-0.20036909383400001</v>
+        <v>0.12839358326666667</v>
       </c>
       <c r="M43" s="0">
-        <v>-0.53186512853333345</v>
+        <v>0.38943717878333334</v>
       </c>
       <c r="N43" s="0">
-        <v>0.30987578969999996</v>
+        <v>0.078853437833333331</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>0.10518212720000002</v>
+        <v>-0.15091799463333333</v>
       </c>
       <c r="B44" s="0">
-        <v>0.38484159996666661</v>
+        <v>-0.1434672538</v>
       </c>
       <c r="C44" s="0">
-        <v>0.12428163486666666</v>
+        <v>-0.16760624567666671</v>
       </c>
       <c r="D44" s="0">
-        <v>-0.12988575067333333</v>
+        <v>-0.27039211784333333</v>
       </c>
       <c r="E44" s="0">
-        <v>-0.0080408932666666821</v>
+        <v>-0.49340913319999996</v>
       </c>
       <c r="F44" s="0">
-        <v>-0.0082864792766666664</v>
+        <v>-0.25967422146000002</v>
       </c>
       <c r="G44" s="0">
-        <v>0.45560005210000004</v>
+        <v>-0.014154400963333322</v>
       </c>
       <c r="H44" s="0">
-        <v>0.30601261656666662</v>
+        <v>-0.091959420609333334</v>
       </c>
       <c r="I44" s="0">
-        <v>-0.058726494849999998</v>
+        <v>-0.36220739851</v>
       </c>
       <c r="J44" s="0">
-        <v>0.44267475563333331</v>
+        <v>-0.25485558453333335</v>
       </c>
       <c r="K44" s="0">
-        <v>0.32197754409999996</v>
+        <v>-0.24959137150999997</v>
       </c>
       <c r="L44" s="0">
-        <v>0.22130202191666667</v>
+        <v>-0.27842834606666667</v>
       </c>
       <c r="M44" s="0">
-        <v>0.069861320466666599</v>
+        <v>-0.32754030993333333</v>
       </c>
       <c r="N44" s="0">
-        <v>0.18796971289999997</v>
+        <v>-0.3960165077333333</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>-0.72763611215000001</v>
+        <v>-0.68214350090499998</v>
       </c>
       <c r="B45" s="0">
-        <v>-0.89149546665000001</v>
+        <v>-0.89007511559999997</v>
       </c>
       <c r="C45" s="0">
-        <v>-0.47780716754499997</v>
+        <v>-0.3528161091</v>
       </c>
       <c r="D45" s="0">
-        <v>-0.70567148849999994</v>
+        <v>-0.50153446875000007</v>
       </c>
       <c r="E45" s="0">
-        <v>-0.50784716545000008</v>
+        <v>-0.45099667574999996</v>
       </c>
       <c r="F45" s="0">
-        <v>-0.81884777209999993</v>
+        <v>-0.6540195271</v>
       </c>
       <c r="G45" s="0">
-        <v>-0.9312465472</v>
+        <v>-0.82497381935000003</v>
       </c>
       <c r="H45" s="0">
-        <v>-0.91841295640000009</v>
+        <v>-0.89388297849999998</v>
       </c>
       <c r="I45" s="0">
-        <v>-0.50169842620500005</v>
+        <v>-0.38268719784999999</v>
       </c>
       <c r="J45" s="0">
-        <v>-0.90634883620000006</v>
+        <v>-0.94997233339999987</v>
       </c>
       <c r="K45" s="0">
-        <v>-0.26263067178999999</v>
+        <v>-0.21426266845</v>
       </c>
       <c r="L45" s="0">
-        <v>-0.34438967524999997</v>
+        <v>-0.44064256205000002</v>
       </c>
       <c r="M45" s="0">
-        <v>-0.38328866664</v>
+        <v>-0.30981786984999998</v>
       </c>
       <c r="N45" s="0">
-        <v>-0.069467293999999957</v>
+        <v>-0.18688537180000003</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>0.052387899889999978</v>
+        <v>0.20208793463999999</v>
       </c>
       <c r="B46" s="0">
-        <v>-0.24073512763333335</v>
+        <v>0.2413437739666667</v>
       </c>
       <c r="C46" s="0">
-        <v>-0.11911040042</v>
+        <v>-0.039936818499999992</v>
       </c>
       <c r="D46" s="0">
-        <v>-0.080365137079999996</v>
+        <v>-0.062259114862666665</v>
       </c>
       <c r="E46" s="0">
-        <v>0.16107247806399999</v>
+        <v>-0.14538349379666665</v>
       </c>
       <c r="F46" s="0">
-        <v>0.044197036000000002</v>
+        <v>-0.46328347783333329</v>
       </c>
       <c r="G46" s="0">
-        <v>-0.33582971285666668</v>
+        <v>-0.25016705586666665</v>
       </c>
       <c r="H46" s="0">
-        <v>-0.090612548966666664</v>
+        <v>-0.061173998566666686</v>
       </c>
       <c r="I46" s="0">
-        <v>-0.25136489369999998</v>
+        <v>-0.15973653783333333</v>
       </c>
       <c r="J46" s="0">
-        <v>0.075517191666666664</v>
+        <v>-0.13670156110000001</v>
       </c>
       <c r="K46" s="0">
-        <v>0.34171602206666668</v>
+        <v>0.016094674733333297</v>
       </c>
       <c r="L46" s="0">
-        <v>-0.15610984929333335</v>
+        <v>-0.19214944959999999</v>
       </c>
       <c r="M46" s="0">
-        <v>0.24560784953333334</v>
+        <v>0.036046079533333331</v>
       </c>
       <c r="N46" s="0">
-        <v>-0.066640457799999983</v>
+        <v>0.22572164430300001</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>0.10650839380000002</v>
+        <v>0.20200565844999999</v>
       </c>
       <c r="B47" s="0">
-        <v>0.57415399884999996</v>
+        <v>0.60137300069999999</v>
       </c>
       <c r="C47" s="0">
-        <v>0.45599824394999999</v>
+        <v>0.52029793604999997</v>
       </c>
       <c r="D47" s="0">
-        <v>-0.18429869765000001</v>
+        <v>-0.098822932052500007</v>
       </c>
       <c r="E47" s="0">
-        <v>0.16286048850000001</v>
+        <v>0.24235709999500002</v>
       </c>
       <c r="F47" s="0">
-        <v>0.017894787450000005</v>
+        <v>-0.0098620719000000051</v>
       </c>
       <c r="G47" s="0">
-        <v>0.38559431620000001</v>
+        <v>0.39104824594999998</v>
       </c>
       <c r="H47" s="0">
-        <v>0.1164945989</v>
+        <v>0.17054125374000001</v>
       </c>
       <c r="I47" s="0">
-        <v>-0.11070444727500001</v>
+        <v>-0.1261543782</v>
       </c>
       <c r="J47" s="0">
-        <v>0.7900054756499999</v>
+        <v>0.56385962025000003</v>
       </c>
       <c r="K47" s="0">
-        <v>0.77996899590000002</v>
+        <v>0.95046941055</v>
       </c>
       <c r="L47" s="0">
-        <v>0.1646501433</v>
+        <v>0.17250665544999999</v>
       </c>
       <c r="M47" s="0">
-        <v>-0.0072354897999999945</v>
+        <v>0.13362145510000004</v>
       </c>
       <c r="N47" s="0">
-        <v>0.11523320520000002</v>
+        <v>0.19800714605</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>0.42096111289999999</v>
+        <v>0.55612853094999992</v>
       </c>
       <c r="B48" s="0">
-        <v>1.0319737267</v>
+        <v>0.96510548929999995</v>
       </c>
       <c r="C48" s="0">
-        <v>0.94703528690000005</v>
+        <v>0.77682430655000001</v>
       </c>
       <c r="D48" s="0">
-        <v>-0.085717071254999999</v>
+        <v>-0.31587492309999998</v>
       </c>
       <c r="E48" s="0">
-        <v>-0.56231677145000003</v>
+        <v>-0.67185208944999997</v>
       </c>
       <c r="F48" s="0">
-        <v>0.0026533995500000185</v>
+        <v>-0.22192435400500002</v>
       </c>
       <c r="G48" s="0">
-        <v>-0.14403044644999999</v>
+        <v>-0.16493187734999998</v>
       </c>
       <c r="H48" s="0">
-        <v>0.015389435210000003</v>
+        <v>-0.068655310800000008</v>
       </c>
       <c r="I48" s="0">
-        <v>0.2506186749</v>
+        <v>0.0018303454849999956</v>
       </c>
       <c r="J48" s="0">
-        <v>0.10308599600000001</v>
+        <v>-0.14319416440000002</v>
       </c>
       <c r="K48" s="0">
-        <v>0.45842852884999996</v>
+        <v>0.98240504885000002</v>
       </c>
       <c r="L48" s="0">
-        <v>0.50998413874999993</v>
+        <v>0.52164312899999998</v>
       </c>
       <c r="M48" s="0">
-        <v>0.76339177835000005</v>
+        <v>0.64077220820000003</v>
       </c>
       <c r="N48" s="0">
-        <v>0.68992709814999997</v>
+        <v>0.81150780865000005</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>0.18350228786666664</v>
+        <v>0.22843018138333329</v>
       </c>
       <c r="B49" s="0">
-        <v>0.34827900014000002</v>
+        <v>0.30314402693466669</v>
       </c>
       <c r="C49" s="0">
-        <v>0.087696216063333318</v>
+        <v>0.045210785956666645</v>
       </c>
       <c r="D49" s="0">
-        <v>0.068690482646666676</v>
+        <v>0.11871427736666666</v>
       </c>
       <c r="E49" s="0">
-        <v>0.17294939131933332</v>
+        <v>0.11461430746666668</v>
       </c>
       <c r="F49" s="0">
-        <v>0.46009179546666673</v>
+        <v>0.15698752443333333</v>
       </c>
       <c r="G49" s="0">
-        <v>0.45320048716666667</v>
+        <v>0.10644528732666668</v>
       </c>
       <c r="H49" s="0">
-        <v>0.19449063186333335</v>
+        <v>-0.1088482992</v>
       </c>
       <c r="I49" s="0">
-        <v>-0.02761327278333334</v>
+        <v>0.18569921336666664</v>
       </c>
       <c r="J49" s="0">
-        <v>0.63500059739999992</v>
+        <v>0.0072450064333333215</v>
       </c>
       <c r="K49" s="0">
-        <v>0.30702466160666669</v>
+        <v>-0.085804503043333327</v>
       </c>
       <c r="L49" s="0">
-        <v>0.41322967772999997</v>
+        <v>-0.1355560626</v>
       </c>
       <c r="M49" s="0">
-        <v>0.56441330430000003</v>
+        <v>-0.12818433656666667</v>
       </c>
       <c r="N49" s="0">
-        <v>0.5015117331283333</v>
+        <v>-0.12936482953666667</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>0.091759367749999987</v>
+        <v>0.24521112815000001</v>
       </c>
       <c r="B50" s="0">
-        <v>-0.023336737250000003</v>
+        <v>0.053206946030000007</v>
       </c>
       <c r="C50" s="0">
-        <v>-0.53133745190000004</v>
+        <v>-0.34142280555000004</v>
       </c>
       <c r="D50" s="0">
-        <v>-0.55845422745000006</v>
+        <v>-0.32924823435</v>
       </c>
       <c r="E50" s="0">
-        <v>-1.05534555595</v>
+        <v>-0.88627595910000001</v>
       </c>
       <c r="F50" s="0">
-        <v>-0.45353358340000005</v>
+        <v>-0.095230587199999994</v>
       </c>
       <c r="G50" s="0">
-        <v>0.10668814699999998</v>
+        <v>0.24886308759999998</v>
       </c>
       <c r="H50" s="0">
-        <v>0.43204400139999999</v>
+        <v>0.52247506664999999</v>
       </c>
       <c r="I50" s="0">
-        <v>-0.75588835855000003</v>
+        <v>-0.46624925755000002</v>
       </c>
       <c r="J50" s="0">
-        <v>1.5330557414650001</v>
+        <v>1.2983772191</v>
       </c>
       <c r="K50" s="0">
-        <v>-0.4661101198</v>
+        <v>-0.31294656855000003</v>
       </c>
       <c r="L50" s="0">
-        <v>-0.5196220949</v>
+        <v>-0.54909153619999995</v>
       </c>
       <c r="M50" s="0">
-        <v>-1.192040489</v>
+        <v>-0.77708088249999996</v>
       </c>
       <c r="N50" s="0">
-        <v>-0.93049172690000004</v>
+        <v>-0.75181621920000008</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0">
-        <v>-0.40437653750000002</v>
+        <v>-0.72546924069999996</v>
       </c>
       <c r="B51" s="0">
-        <v>-0.45235333335000005</v>
+        <v>-0.70750275130000007</v>
       </c>
       <c r="C51" s="0">
-        <v>-0.14744604234999997</v>
+        <v>-0.27770965489999999</v>
       </c>
       <c r="D51" s="0">
-        <v>-0.078135608750000016</v>
+        <v>-0.28617976739999995</v>
       </c>
       <c r="E51" s="0">
-        <v>-0.47054838644999997</v>
+        <v>-0.50480327030500005</v>
       </c>
       <c r="F51" s="0">
-        <v>-0.38786800460999998</v>
+        <v>-0.39683133320000002</v>
       </c>
       <c r="G51" s="0">
-        <v>-0.34702665015</v>
+        <v>-0.57200304915</v>
       </c>
       <c r="H51" s="0">
-        <v>-0.36066703957000001</v>
+        <v>-0.11442991205</v>
       </c>
       <c r="I51" s="0">
-        <v>-0.093555204044999993</v>
+        <v>-0.050686333349999974</v>
       </c>
       <c r="J51" s="0">
-        <v>0.011185664990000002</v>
+        <v>-0.14698255103000002</v>
       </c>
       <c r="K51" s="0">
-        <v>0.025003156225</v>
+        <v>-0.1901320923</v>
       </c>
       <c r="L51" s="0">
-        <v>-0.66031046905000002</v>
+        <v>-0.8743170951</v>
       </c>
       <c r="M51" s="0">
-        <v>-0.35070449259499997</v>
+        <v>-0.6990932461499999</v>
       </c>
       <c r="N51" s="0">
-        <v>-0.20561691515</v>
+        <v>-0.47245787220499996</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0">
-        <v>-0.98188317974999995</v>
+        <v>-0.7641037651</v>
       </c>
       <c r="B52" s="0">
-        <v>-0.70699806630000006</v>
+        <v>-0.484078941416</v>
       </c>
       <c r="C52" s="0">
-        <v>-0.381328000005</v>
+        <v>-0.25995618865500003</v>
       </c>
       <c r="D52" s="0">
-        <v>0.015030566199999998</v>
+        <v>0.13948557881500001</v>
       </c>
       <c r="E52" s="0">
-        <v>-0.37073665710000003</v>
+        <v>-0.23257623505000002</v>
       </c>
       <c r="F52" s="0">
-        <v>0.078250633599999994</v>
+        <v>0.16813851504999999</v>
       </c>
       <c r="G52" s="0">
-        <v>0.17029366338999999</v>
+        <v>0.25434799170050004</v>
       </c>
       <c r="H52" s="0">
-        <v>0.082395013665000003</v>
+        <v>0.13921221182499999</v>
       </c>
       <c r="I52" s="0">
-        <v>-0.60198544269999998</v>
+        <v>-0.38625897139999998</v>
       </c>
       <c r="J52" s="0">
-        <v>-0.16950575089999997</v>
+        <v>0.2351306286</v>
       </c>
       <c r="K52" s="0">
-        <v>0.48626266265000001</v>
+        <v>0.46406497215000003</v>
       </c>
       <c r="L52" s="0">
-        <v>-0.73865744155000002</v>
+        <v>-0.40735790311000003</v>
       </c>
       <c r="M52" s="0">
-        <v>-0.83321544385000001</v>
+        <v>-0.45498544464999996</v>
       </c>
       <c r="N52" s="0">
-        <v>-0.55995576682000003</v>
+        <v>-0.37494225778999996</v>
       </c>
     </row>
   </sheetData>
